--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col18a1-Kdr.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H2">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I2">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J2">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N2">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O2">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P2">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q2">
-        <v>2017.842365162308</v>
+        <v>7427.225221163503</v>
       </c>
       <c r="R2">
-        <v>18160.58128646077</v>
+        <v>66845.02699047154</v>
       </c>
       <c r="S2">
-        <v>0.1623170983104926</v>
+        <v>0.3340874720685733</v>
       </c>
       <c r="T2">
-        <v>0.1623170983104927</v>
+        <v>0.3340874720685733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H3">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I3">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J3">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.296359</v>
       </c>
       <c r="O3">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P3">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q3">
-        <v>6.828109240616222</v>
+        <v>17.43296683812178</v>
       </c>
       <c r="R3">
-        <v>61.452983165546</v>
+        <v>156.896701543096</v>
       </c>
       <c r="S3">
-        <v>0.000549259396085054</v>
+        <v>0.0007841603894019252</v>
       </c>
       <c r="T3">
-        <v>0.0005492593960850542</v>
+        <v>0.0007841603894019252</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H4">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I4">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J4">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N4">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O4">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P4">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q4">
-        <v>11.86981399756133</v>
+        <v>55.185113315448</v>
       </c>
       <c r="R4">
-        <v>106.828325978052</v>
+        <v>496.6660198390321</v>
       </c>
       <c r="S4">
-        <v>0.000954818770203811</v>
+        <v>0.002482307248586116</v>
       </c>
       <c r="T4">
-        <v>0.0009548187702038112</v>
+        <v>0.002482307248586117</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>15.80143133333333</v>
+        <v>40.34291466666667</v>
       </c>
       <c r="H5">
-        <v>47.404294</v>
+        <v>121.028744</v>
       </c>
       <c r="I5">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="J5">
-        <v>0.1698881129360889</v>
+        <v>0.3404392602027053</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N5">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O5">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P5">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q5">
-        <v>75.42102182556667</v>
+        <v>68.59092938279912</v>
       </c>
       <c r="R5">
-        <v>678.7891964301001</v>
+        <v>617.3183644451921</v>
       </c>
       <c r="S5">
-        <v>0.006066936459307416</v>
+        <v>0.003085320496143996</v>
       </c>
       <c r="T5">
-        <v>0.006066936459307417</v>
+        <v>0.003085320496143996</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>124.331589</v>
       </c>
       <c r="I6">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J6">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N6">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O6">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P6">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q6">
-        <v>5292.380213744941</v>
+        <v>7629.912391787978</v>
       </c>
       <c r="R6">
-        <v>47631.42192370447</v>
+        <v>68669.21152609179</v>
       </c>
       <c r="S6">
-        <v>0.4257239387388148</v>
+        <v>0.3432046379600439</v>
       </c>
       <c r="T6">
-        <v>0.4257239387388148</v>
+        <v>0.3432046379600438</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>124.331589</v>
       </c>
       <c r="I7">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J7">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>1.296359</v>
       </c>
       <c r="O7">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P7">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q7">
         <v>17.908708264939</v>
@@ -883,10 +883,10 @@
         <v>161.178374384451</v>
       </c>
       <c r="S7">
-        <v>0.001440592986965171</v>
+        <v>0.0008055599357884779</v>
       </c>
       <c r="T7">
-        <v>0.001440592986965172</v>
+        <v>0.0008055599357884777</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>124.331589</v>
       </c>
       <c r="I8">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J8">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N8">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O8">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P8">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q8">
-        <v>31.132049671518</v>
+        <v>56.691101641563</v>
       </c>
       <c r="R8">
-        <v>280.188447043662</v>
+        <v>510.219914774067</v>
       </c>
       <c r="S8">
-        <v>0.002504290748565218</v>
+        <v>0.002550048809916839</v>
       </c>
       <c r="T8">
-        <v>0.002504290748565218</v>
+        <v>0.002550048809916839</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>124.331589</v>
       </c>
       <c r="I9">
-        <v>0.4455811330837537</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="J9">
-        <v>0.4455811330837538</v>
+        <v>0.3497297648481489</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N9">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O9">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P9">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q9">
-        <v>197.81363029215</v>
+        <v>70.46275917025301</v>
       </c>
       <c r="R9">
-        <v>1780.32267262935</v>
+        <v>634.1648325322769</v>
       </c>
       <c r="S9">
-        <v>0.01591231060940861</v>
+        <v>0.003169518142399721</v>
       </c>
       <c r="T9">
-        <v>0.01591231060940861</v>
+        <v>0.00316951814239972</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H10">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I10">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J10">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N10">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O10">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P10">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q10">
-        <v>4565.196714965949</v>
+        <v>6745.888275547012</v>
       </c>
       <c r="R10">
-        <v>41086.77043469354</v>
+        <v>60712.99447992311</v>
       </c>
       <c r="S10">
-        <v>0.3672286283523746</v>
+        <v>0.3034399380286296</v>
       </c>
       <c r="T10">
-        <v>0.3672286283523747</v>
+        <v>0.3034399380286296</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H11">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I11">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J11">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>1.296359</v>
       </c>
       <c r="O11">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P11">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q11">
-        <v>15.44801636285522</v>
+        <v>15.83375259258167</v>
       </c>
       <c r="R11">
-        <v>139.032147265697</v>
+        <v>142.503773333235</v>
       </c>
       <c r="S11">
-        <v>0.001242652664035021</v>
+        <v>0.0007122253896302541</v>
       </c>
       <c r="T11">
-        <v>0.001242652664035021</v>
+        <v>0.0007122253896302541</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H12">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I12">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J12">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N12">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O12">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P12">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q12">
-        <v>26.85444453167933</v>
+        <v>50.122703676555</v>
       </c>
       <c r="R12">
-        <v>241.690000785114</v>
+        <v>451.104333088995</v>
       </c>
       <c r="S12">
-        <v>0.002160196251391346</v>
+        <v>0.00225459264609714</v>
       </c>
       <c r="T12">
-        <v>0.002160196251391346</v>
+        <v>0.002254592646097141</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.74939433333333</v>
+        <v>36.642055</v>
       </c>
       <c r="H13">
-        <v>107.248183</v>
+        <v>109.926165</v>
       </c>
       <c r="I13">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020276</v>
       </c>
       <c r="J13">
-        <v>0.3843574049577519</v>
+        <v>0.3092090445020277</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N13">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O13">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P13">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q13">
-        <v>170.6336466227167</v>
+        <v>62.29873641287167</v>
       </c>
       <c r="R13">
-        <v>1535.70281960445</v>
+        <v>560.688627715845</v>
       </c>
       <c r="S13">
-        <v>0.01372592768995091</v>
+        <v>0.002802288437670697</v>
       </c>
       <c r="T13">
-        <v>0.01372592768995091</v>
+        <v>0.002802288437670697</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H14">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I14">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J14">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>127.6999736666667</v>
+        <v>184.1023456666667</v>
       </c>
       <c r="N14">
-        <v>383.099921</v>
+        <v>552.307037</v>
       </c>
       <c r="O14">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591566</v>
       </c>
       <c r="P14">
-        <v>0.9554352891750322</v>
+        <v>0.9813423747591565</v>
       </c>
       <c r="Q14">
-        <v>2.058949242085555</v>
+        <v>13.56840424308189</v>
       </c>
       <c r="R14">
-        <v>18.53054317877</v>
+        <v>122.115638187737</v>
       </c>
       <c r="S14">
-        <v>0.0001656237733501216</v>
+        <v>0.0006103267019100323</v>
       </c>
       <c r="T14">
-        <v>0.0001656237733501216</v>
+        <v>0.0006103267019100323</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H15">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I15">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J15">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>1.296359</v>
       </c>
       <c r="O15">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889225</v>
       </c>
       <c r="P15">
-        <v>0.003233065495828321</v>
+        <v>0.002303378255889224</v>
       </c>
       <c r="Q15">
-        <v>0.006967209425555555</v>
+        <v>0.03184736347322222</v>
       </c>
       <c r="R15">
-        <v>0.06270488483</v>
+        <v>0.286626271259</v>
       </c>
       <c r="S15">
-        <v>5.604487430745001E-07</v>
+        <v>1.432541068567605E-06</v>
       </c>
       <c r="T15">
-        <v>5.604487430745001E-07</v>
+        <v>1.432541068567605E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H16">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I16">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J16">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.751186</v>
+        <v>1.367901</v>
       </c>
       <c r="N16">
-        <v>2.253558</v>
+        <v>4.103703</v>
       </c>
       <c r="O16">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="P16">
-        <v>0.00562028004021099</v>
+        <v>0.007291483500193526</v>
       </c>
       <c r="Q16">
-        <v>0.01211162227333333</v>
+        <v>0.100814759667</v>
       </c>
       <c r="R16">
-        <v>0.10900460046</v>
+        <v>0.907332837003</v>
       </c>
       <c r="S16">
-        <v>9.74270050615211E-07</v>
+        <v>4.534795593430588E-06</v>
       </c>
       <c r="T16">
-        <v>9.74270050615211E-07</v>
+        <v>4.534795593430589E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.01612333333333333</v>
+        <v>0.07370033333333333</v>
       </c>
       <c r="H17">
-        <v>0.04837</v>
+        <v>0.221101</v>
       </c>
       <c r="I17">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182344</v>
       </c>
       <c r="J17">
-        <v>0.0001733490224054095</v>
+        <v>0.0006219304471182345</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.77305</v>
+        <v>1.700197666666667</v>
       </c>
       <c r="N17">
-        <v>14.31915</v>
+        <v>5.100593</v>
       </c>
       <c r="O17">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760617</v>
       </c>
       <c r="P17">
-        <v>0.03571136528892854</v>
+        <v>0.009062763484760615</v>
       </c>
       <c r="Q17">
-        <v>0.07695747616666668</v>
+        <v>0.1253051347658889</v>
       </c>
       <c r="R17">
-        <v>0.6926172855</v>
+        <v>1.127746212893</v>
       </c>
       <c r="S17">
-        <v>6.190530261598237E-06</v>
+        <v>5.636408546203978E-06</v>
       </c>
       <c r="T17">
-        <v>6.190530261598237E-06</v>
+        <v>5.636408546203978E-06</v>
       </c>
     </row>
   </sheetData>
